--- a/data/diam_data.xlsx
+++ b/data/diam_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopheradlam/Desktop/Davis/Research Project/Fire Mosaics/Field work/Data entered/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopheradlam/Desktop/Davis/R/GitHub Repos/Fire_mosaics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA10C624-F35A-6D46-8432-9B9F15A61A7B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730E6039-B13B-A64C-A468-7DF042662A3C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3580" yWindow="4460" windowWidth="24840" windowHeight="13040" xr2:uid="{06193299-575F-0540-BF2D-426379A76079}"/>
   </bookViews>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77FE3B05-13CF-854D-8E7C-9A951AF9EB25}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -428,6 +428,22 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>52</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>51</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/diam_data.xlsx
+++ b/data/diam_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopheradlam/Desktop/Davis/R/GitHub Repos/Fire_mosaics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730E6039-B13B-A64C-A468-7DF042662A3C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDD86FE-61C8-CE4C-86F6-38BF59F39E56}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3580" yWindow="4460" windowWidth="24840" windowHeight="13040" xr2:uid="{06193299-575F-0540-BF2D-426379A76079}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="22">
   <si>
     <t>site_id</t>
   </si>
@@ -46,6 +46,51 @@
   </si>
   <si>
     <t>tree4</t>
+  </si>
+  <si>
+    <t>PSME</t>
+  </si>
+  <si>
+    <t>QUKE</t>
+  </si>
+  <si>
+    <t>QUCH</t>
+  </si>
+  <si>
+    <t>NODE</t>
+  </si>
+  <si>
+    <t>ARME</t>
+  </si>
+  <si>
+    <t>PILA</t>
+  </si>
+  <si>
+    <t>QUGA</t>
+  </si>
+  <si>
+    <t>ACMA</t>
+  </si>
+  <si>
+    <t>PIPO</t>
+  </si>
+  <si>
+    <t>CONU</t>
+  </si>
+  <si>
+    <t>PME</t>
+  </si>
+  <si>
+    <t>CHCH</t>
+  </si>
+  <si>
+    <t>UMCA</t>
+  </si>
+  <si>
+    <t>CADE</t>
+  </si>
+  <si>
+    <t>ABCO</t>
   </si>
 </sst>
 </file>
@@ -397,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77FE3B05-13CF-854D-8E7C-9A951AF9EB25}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -435,12 +480,3952 @@
       <c r="B2">
         <v>0</v>
       </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>51</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>6</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>8</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>58</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34">
+        <v>30</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>58</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35">
+        <v>8</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>58</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>58</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37">
+        <v>20</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>58</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>57</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>30</v>
+      </c>
+      <c r="E39">
+        <v>5</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>57</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>57</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>57</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>57</v>
+      </c>
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>57</v>
+      </c>
+      <c r="B44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>10</v>
+      </c>
+      <c r="B45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <v>8</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>10</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>6</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>10</v>
+      </c>
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>9</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>9</v>
+      </c>
+      <c r="B49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>55</v>
+      </c>
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>7</v>
+      </c>
+      <c r="E50">
+        <v>4</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>55</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>55</v>
+      </c>
+      <c r="B52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52">
+        <v>4</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>56</v>
+      </c>
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53">
+        <v>40</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>56</v>
+      </c>
+      <c r="B54" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54">
+        <v>25</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>56</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55">
+        <v>20</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>27</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57">
+        <v>7</v>
+      </c>
+      <c r="D57">
+        <v>4</v>
+      </c>
+      <c r="E57">
+        <v>10</v>
+      </c>
+      <c r="F57">
+        <v>3</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>27</v>
+      </c>
+      <c r="B58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58">
+        <v>10</v>
+      </c>
+      <c r="D58">
+        <v>5</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>27</v>
+      </c>
+      <c r="B59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>4</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60">
+        <v>10</v>
+      </c>
+      <c r="D60">
+        <v>6</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61">
+        <v>5</v>
+      </c>
+      <c r="D61">
+        <v>4</v>
+      </c>
+      <c r="E61">
+        <v>4</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>59</v>
+      </c>
+      <c r="B62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>59</v>
+      </c>
+      <c r="B63" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>60</v>
+      </c>
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>60</v>
+      </c>
+      <c r="B65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>60</v>
+      </c>
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>60</v>
+      </c>
+      <c r="B67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>60</v>
+      </c>
+      <c r="B68" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>28</v>
+      </c>
+      <c r="B69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69">
+        <v>20</v>
+      </c>
+      <c r="D69">
+        <v>4</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>28</v>
+      </c>
+      <c r="B70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>3</v>
+      </c>
+      <c r="B71" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71">
+        <v>4</v>
+      </c>
+      <c r="D71">
+        <v>6</v>
+      </c>
+      <c r="E71">
+        <v>3</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>3</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>3</v>
+      </c>
+      <c r="B73" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73">
+        <v>3</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>2</v>
+      </c>
+      <c r="B74" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>2</v>
+      </c>
+      <c r="B75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>2</v>
+      </c>
+      <c r="B76" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>30</v>
+      </c>
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="D77">
+        <v>5</v>
+      </c>
+      <c r="E77">
+        <v>3</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>30</v>
+      </c>
+      <c r="B78" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78">
+        <v>4</v>
+      </c>
+      <c r="D78">
+        <v>4</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>30</v>
+      </c>
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>3</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>30</v>
+      </c>
+      <c r="B80" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+      <c r="D80">
+        <v>5</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>30</v>
+      </c>
+      <c r="B81" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81">
+        <v>6</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>30</v>
+      </c>
+      <c r="B82" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="B83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>3</v>
+      </c>
+      <c r="E83">
+        <v>5</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>1</v>
+      </c>
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>1</v>
+      </c>
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85">
+        <v>8</v>
+      </c>
+      <c r="D85">
+        <v>5</v>
+      </c>
+      <c r="E85">
+        <v>17</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>25</v>
+      </c>
+      <c r="B86" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>4</v>
+      </c>
+      <c r="F86">
+        <v>4</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>25</v>
+      </c>
+      <c r="B87" t="s">
+        <v>20</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>25</v>
+      </c>
+      <c r="B88" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88">
+        <v>2</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>25</v>
+      </c>
+      <c r="B89" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89">
+        <v>3</v>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>40</v>
+      </c>
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>40</v>
+      </c>
+      <c r="B91" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91">
+        <v>2</v>
+      </c>
+      <c r="D91">
+        <v>3</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>40</v>
+      </c>
+      <c r="B92" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92">
+        <v>5</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>40</v>
+      </c>
+      <c r="B93" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>53</v>
+      </c>
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94">
+        <v>2</v>
+      </c>
+      <c r="D94">
+        <v>4</v>
+      </c>
+      <c r="E94">
+        <v>2</v>
+      </c>
+      <c r="F94">
+        <v>4</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>53</v>
+      </c>
+      <c r="B95" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95">
+        <v>3</v>
+      </c>
+      <c r="D95">
+        <v>3</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>53</v>
+      </c>
+      <c r="B96" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>3</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>53</v>
+      </c>
+      <c r="B97" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97">
+        <v>8</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>51</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>49</v>
+      </c>
+      <c r="B99" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>3</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>49</v>
+      </c>
+      <c r="B100" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100">
+        <v>5</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>49</v>
+      </c>
+      <c r="B101" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>4</v>
+      </c>
+      <c r="E101">
+        <v>2</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>49</v>
+      </c>
+      <c r="B102" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
+      </c>
+      <c r="D102">
+        <v>9</v>
+      </c>
+      <c r="E102">
+        <v>2</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>47</v>
+      </c>
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103">
+        <v>3</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>2</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>47</v>
+      </c>
+      <c r="B104" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104">
+        <v>13</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>47</v>
+      </c>
+      <c r="B105" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105">
+        <v>6</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>41</v>
+      </c>
+      <c r="B106" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106">
+        <v>5</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>41</v>
+      </c>
+      <c r="B107" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107">
+        <v>7</v>
+      </c>
+      <c r="D107">
+        <v>20</v>
+      </c>
+      <c r="E107">
+        <v>17</v>
+      </c>
+      <c r="F107">
+        <v>3</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>41</v>
+      </c>
+      <c r="B108" t="s">
+        <v>14</v>
+      </c>
+      <c r="C108">
+        <v>4</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>41</v>
+      </c>
+      <c r="B109" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109">
+        <v>3</v>
+      </c>
+      <c r="D109">
+        <v>6</v>
+      </c>
+      <c r="E109">
+        <v>6</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>41</v>
+      </c>
+      <c r="B110" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>41</v>
+      </c>
+      <c r="B111" t="s">
+        <v>21</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>44</v>
+      </c>
+      <c r="B112" t="s">
+        <v>21</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>6</v>
+      </c>
+      <c r="E112">
+        <v>6</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>44</v>
+      </c>
+      <c r="B113" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>15</v>
+      </c>
+      <c r="E113">
+        <v>11</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>44</v>
+      </c>
+      <c r="B114" t="s">
+        <v>10</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>44</v>
+      </c>
+      <c r="B115" t="s">
+        <v>11</v>
+      </c>
+      <c r="C115">
+        <v>2</v>
+      </c>
+      <c r="D115">
+        <v>2</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>46</v>
+      </c>
+      <c r="B116" t="s">
+        <v>10</v>
+      </c>
+      <c r="C116">
+        <v>31</v>
+      </c>
+      <c r="D116">
+        <v>15</v>
+      </c>
+      <c r="E116">
+        <v>7</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>46</v>
+      </c>
+      <c r="B117" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117">
+        <v>3</v>
+      </c>
+      <c r="D117">
+        <v>3</v>
+      </c>
+      <c r="E117">
+        <v>3</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>46</v>
+      </c>
+      <c r="B118" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118">
+        <v>15</v>
+      </c>
+      <c r="D118">
+        <v>6</v>
+      </c>
+      <c r="E118">
+        <v>5</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>46</v>
+      </c>
+      <c r="B119" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>20</v>
+      </c>
+      <c r="B120" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120">
+        <v>6</v>
+      </c>
+      <c r="D120">
+        <v>9</v>
+      </c>
+      <c r="E120">
+        <v>4</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>20</v>
+      </c>
+      <c r="B121" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121">
+        <v>2</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>20</v>
+      </c>
+      <c r="B122" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>20</v>
+      </c>
+      <c r="B123" t="s">
+        <v>15</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>20</v>
+      </c>
+      <c r="B124" t="s">
+        <v>12</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>21</v>
+      </c>
+      <c r="B125" t="s">
+        <v>14</v>
+      </c>
+      <c r="C125">
+        <v>15</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>21</v>
+      </c>
+      <c r="B126" t="s">
+        <v>15</v>
+      </c>
+      <c r="C126">
+        <v>5</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>42</v>
+      </c>
+      <c r="B127" t="s">
+        <v>10</v>
+      </c>
+      <c r="C127">
+        <v>7</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>42</v>
+      </c>
+      <c r="B128" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128">
+        <v>36</v>
+      </c>
+      <c r="D128">
+        <v>4</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>42</v>
+      </c>
+      <c r="B129" t="s">
+        <v>9</v>
+      </c>
+      <c r="C129">
+        <v>5</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>42</v>
+      </c>
+      <c r="B130" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130">
+        <v>60</v>
+      </c>
+      <c r="D130">
+        <v>26</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>42</v>
+      </c>
+      <c r="B131" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131">
+        <v>52</v>
+      </c>
+      <c r="D131">
+        <v>24</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>43</v>
+      </c>
+      <c r="B132" t="s">
+        <v>11</v>
+      </c>
+      <c r="C132">
+        <v>2</v>
+      </c>
+      <c r="D132">
+        <v>5</v>
+      </c>
+      <c r="E132">
+        <v>2</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>43</v>
+      </c>
+      <c r="B133" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133">
+        <v>5</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+      <c r="E133">
+        <v>8</v>
+      </c>
+      <c r="F133">
+        <v>11</v>
+      </c>
+      <c r="G133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>43</v>
+      </c>
+      <c r="B134" t="s">
+        <v>10</v>
+      </c>
+      <c r="C134">
+        <v>6</v>
+      </c>
+      <c r="D134">
+        <v>5</v>
+      </c>
+      <c r="E134">
+        <v>4</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>43</v>
+      </c>
+      <c r="B135" t="s">
+        <v>9</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>43</v>
+      </c>
+      <c r="B136" t="s">
+        <v>18</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>3</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>19</v>
+      </c>
+      <c r="B137" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137">
+        <v>9</v>
+      </c>
+      <c r="D137">
+        <v>2</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>19</v>
+      </c>
+      <c r="B138" t="s">
+        <v>14</v>
+      </c>
+      <c r="C138">
+        <v>2</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>19</v>
+      </c>
+      <c r="B139" t="s">
+        <v>9</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>18</v>
+      </c>
+      <c r="B140" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140">
+        <v>5</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>18</v>
+      </c>
+      <c r="B141" t="s">
+        <v>8</v>
+      </c>
+      <c r="C141">
+        <v>2</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>18</v>
+      </c>
+      <c r="B142" t="s">
+        <v>10</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>18</v>
+      </c>
+      <c r="B143" t="s">
+        <v>18</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>13</v>
+      </c>
+      <c r="B144" t="s">
+        <v>7</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="D144">
+        <v>56</v>
+      </c>
+      <c r="E144">
+        <v>8</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>13</v>
+      </c>
+      <c r="B145" t="s">
+        <v>10</v>
+      </c>
+      <c r="C145">
+        <v>85</v>
+      </c>
+      <c r="D145">
+        <v>40</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>13</v>
+      </c>
+      <c r="B146" t="s">
+        <v>11</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>14</v>
+      </c>
+      <c r="B147" t="s">
+        <v>10</v>
+      </c>
+      <c r="C147">
+        <v>6</v>
+      </c>
+      <c r="D147">
+        <v>3</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>14</v>
+      </c>
+      <c r="B148" t="s">
+        <v>11</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>1</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>14</v>
+      </c>
+      <c r="B149" t="s">
+        <v>7</v>
+      </c>
+      <c r="C149">
+        <v>4</v>
+      </c>
+      <c r="D149">
+        <v>2</v>
+      </c>
+      <c r="E149">
+        <v>2</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>17</v>
+      </c>
+      <c r="B150" t="s">
+        <v>9</v>
+      </c>
+      <c r="C150">
+        <v>2</v>
+      </c>
+      <c r="D150">
+        <v>3</v>
+      </c>
+      <c r="E150">
+        <v>9</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>17</v>
+      </c>
+      <c r="B151" t="s">
+        <v>7</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+      <c r="D151">
+        <v>2</v>
+      </c>
+      <c r="E151">
+        <v>3</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>16</v>
+      </c>
+      <c r="B152" t="s">
+        <v>10</v>
+      </c>
+      <c r="C152">
+        <v>27</v>
+      </c>
+      <c r="D152">
+        <v>3</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>16</v>
+      </c>
+      <c r="B153" t="s">
+        <v>11</v>
+      </c>
+      <c r="C153">
+        <v>10</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>16</v>
+      </c>
+      <c r="B154" t="s">
+        <v>9</v>
+      </c>
+      <c r="C154">
+        <v>8</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>38</v>
+      </c>
+      <c r="B155" t="s">
+        <v>10</v>
+      </c>
+      <c r="C155">
+        <v>28</v>
+      </c>
+      <c r="D155">
+        <v>11</v>
+      </c>
+      <c r="E155">
+        <v>3</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>38</v>
+      </c>
+      <c r="B156" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156">
+        <v>10</v>
+      </c>
+      <c r="D156">
+        <v>20</v>
+      </c>
+      <c r="E156">
+        <v>12</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>38</v>
+      </c>
+      <c r="B157" t="s">
+        <v>15</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>2</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>38</v>
+      </c>
+      <c r="B158" t="s">
+        <v>11</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="D158">
+        <v>1</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>38</v>
+      </c>
+      <c r="B159" t="s">
+        <v>12</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>38</v>
+      </c>
+      <c r="B160" t="s">
+        <v>8</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>37</v>
+      </c>
+      <c r="B161" t="s">
+        <v>10</v>
+      </c>
+      <c r="C161">
+        <v>9</v>
+      </c>
+      <c r="D161">
+        <v>13</v>
+      </c>
+      <c r="E161">
+        <v>8</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>37</v>
+      </c>
+      <c r="B162" t="s">
+        <v>11</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>37</v>
+      </c>
+      <c r="B163" t="s">
+        <v>16</v>
+      </c>
+      <c r="C163">
+        <v>3</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>37</v>
+      </c>
+      <c r="B164" t="s">
+        <v>14</v>
+      </c>
+      <c r="C164">
+        <v>2</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>37</v>
+      </c>
+      <c r="B165" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <v>1</v>
+      </c>
+      <c r="F165">
+        <v>1</v>
+      </c>
+      <c r="G165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>12</v>
+      </c>
+      <c r="B166" t="s">
+        <v>11</v>
+      </c>
+      <c r="C166">
+        <v>14</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>12</v>
+      </c>
+      <c r="B167" t="s">
+        <v>9</v>
+      </c>
+      <c r="C167">
+        <v>4</v>
+      </c>
+      <c r="D167">
+        <v>1</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>12</v>
+      </c>
+      <c r="B168" t="s">
+        <v>10</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>12</v>
+      </c>
+      <c r="B169" t="s">
+        <v>7</v>
+      </c>
+      <c r="C169">
+        <v>1</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>15</v>
+      </c>
+      <c r="B170" t="s">
+        <v>7</v>
+      </c>
+      <c r="C170">
+        <v>6</v>
+      </c>
+      <c r="D170">
+        <v>6</v>
+      </c>
+      <c r="E170">
+        <v>3</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>15</v>
+      </c>
+      <c r="B171" t="s">
+        <v>11</v>
+      </c>
+      <c r="C171">
+        <v>2</v>
+      </c>
+      <c r="D171">
+        <v>6</v>
+      </c>
+      <c r="E171">
+        <v>5</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>15</v>
+      </c>
+      <c r="B172" t="s">
+        <v>9</v>
+      </c>
+      <c r="C172">
+        <v>4</v>
+      </c>
+      <c r="D172">
+        <v>8</v>
+      </c>
+      <c r="E172">
+        <v>2</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>15</v>
+      </c>
+      <c r="B173" t="s">
+        <v>10</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
+      </c>
+      <c r="D173">
+        <v>1</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+      <c r="G173">
         <v>0</v>
       </c>
     </row>
